--- a/Investment/Stock size by sub-sector/S&P500 Sector List - Final.xlsx
+++ b/Investment/Stock size by sub-sector/S&P500 Sector List - Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jinhyun\Documents\GitHub\Python\Investment\Stock size by sub-sector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD3B96E-F2DD-4563-9B04-12FD2F53E590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C462D55B-BE1A-4AAA-8956-0C7435778592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3968,8 +3968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E506"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A412" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E420" sqref="E420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
